--- a/command groups.xlsx
+++ b/command groups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\school\20465\asembler_share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liorf\Desktop\asembler_share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,7 +144,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -155,6 +174,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Group" dataDxfId="5"/>
+    <tableColumn id="2" name="Command Names" dataDxfId="4"/>
+    <tableColumn id="3" name="Operand 1 Tests" dataDxfId="3"/>
+    <tableColumn id="4" name="Operand 2 Tests" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,13 +454,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
@@ -576,5 +608,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>